--- a/data/statistical/filled_NaN_xlsx/湖北省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/湖北省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>42.8</v>
       </c>
       <c r="E2">
-        <v>3134.853569835424</v>
+        <v>3134.853569984436</v>
       </c>
       <c r="F2">
         <v>5608.92</v>
@@ -609,85 +609,85 @@
         <v>2.21</v>
       </c>
       <c r="H2">
-        <v>43.45757740005502</v>
+        <v>43.45757739994588</v>
       </c>
       <c r="I2">
-        <v>4.687688338445923</v>
+        <v>4.687688338450926</v>
       </c>
       <c r="J2">
-        <v>56.98837227933109</v>
+        <v>56.9883722756058</v>
       </c>
       <c r="K2">
-        <v>54.0862234600354</v>
+        <v>54.08622345817275</v>
       </c>
       <c r="L2">
         <v>1.487670799548141</v>
       </c>
       <c r="M2">
-        <v>150.8977557164617</v>
+        <v>150.8977557045873</v>
       </c>
       <c r="N2">
         <v>280.6105392130557</v>
       </c>
       <c r="O2">
-        <v>26.90705882757902</v>
+        <v>26.90705883037299</v>
       </c>
       <c r="P2">
-        <v>1240.127812530613</v>
+        <v>1223.810405045097</v>
       </c>
       <c r="Q2">
-        <v>87.93164215731667</v>
+        <v>87.93164215688012</v>
       </c>
       <c r="R2">
-        <v>21.92184983764309</v>
+        <v>21.92184983426705</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-107062.4035129547</v>
       </c>
       <c r="T2">
-        <v>21107.53229475021</v>
+        <v>21107.53228998184</v>
       </c>
       <c r="U2">
-        <v>0.5558021977649332</v>
+        <v>0.5558021978249599</v>
       </c>
       <c r="V2">
-        <v>25.65788440941833</v>
+        <v>25.657884423621</v>
       </c>
       <c r="W2">
-        <v>60.159384614788</v>
+        <v>60.15938461851329</v>
       </c>
       <c r="X2">
-        <v>34355.29911086967</v>
+        <v>78884.63496108803</v>
       </c>
       <c r="Y2">
-        <v>69.93601098784711</v>
+        <v>69.93601098674117</v>
       </c>
       <c r="Z2">
-        <v>47692.4225935936</v>
+        <v>47692.42260599136</v>
       </c>
       <c r="AA2">
-        <v>1315.115384995937</v>
+        <v>-1365.564685717225</v>
       </c>
       <c r="AB2">
-        <v>2414187.434417725</v>
+        <v>7874158.65411377</v>
       </c>
       <c r="AC2">
-        <v>3152009.437820435</v>
+        <v>2213092.792114258</v>
       </c>
       <c r="AD2">
-        <v>47414.44405937195</v>
+        <v>-26076.54370069504</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>-3070479.053108215</v>
       </c>
       <c r="AF2">
-        <v>6308.944949140036</v>
+        <v>12204.04632410407</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>-3245531.895633698</v>
       </c>
       <c r="AH2">
-        <v>419347.0237846375</v>
+        <v>1061026.7081604</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>2.32</v>
       </c>
       <c r="H3">
-        <v>44.35235681167251</v>
+        <v>44.35235681157792</v>
       </c>
       <c r="I3">
         <v>4.3</v>
       </c>
       <c r="J3">
-        <v>41.58553682826459</v>
+        <v>41.58553682640195</v>
       </c>
       <c r="K3">
         <v>48.7656202377324</v>
@@ -743,13 +743,13 @@
         <v>89.95</v>
       </c>
       <c r="R3">
-        <v>18.38441175885964</v>
+        <v>18.38441175513435</v>
       </c>
       <c r="S3">
         <v>50704.8</v>
       </c>
       <c r="T3">
-        <v>29252.2110748291</v>
+        <v>29252.2110710144</v>
       </c>
       <c r="U3">
         <v>0.59</v>
@@ -764,34 +764,34 @@
         <v>21059</v>
       </c>
       <c r="Y3">
-        <v>70.49298351553443</v>
+        <v>70.49298351458856</v>
       </c>
       <c r="Z3">
-        <v>71433.99019193649</v>
+        <v>71433.99020147324</v>
       </c>
       <c r="AA3">
-        <v>1125.856643691659</v>
+        <v>-1409.330419942737</v>
       </c>
       <c r="AB3">
-        <v>2055130.925979614</v>
+        <v>7012988.822875977</v>
       </c>
       <c r="AC3">
-        <v>2671992.172714233</v>
+        <v>1821604.265930176</v>
       </c>
       <c r="AD3">
-        <v>39576.61189055443</v>
+        <v>-26989.19055700302</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-2653964.285171509</v>
       </c>
       <c r="AF3">
-        <v>6020.890654729105</v>
+        <v>12321.4739471972</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-2856917.154937744</v>
       </c>
       <c r="AH3">
-        <v>366166.0839157104</v>
+        <v>811824.2381591797</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>2.4</v>
       </c>
       <c r="H4">
-        <v>45.26693627490022</v>
+        <v>45.26693627483473</v>
       </c>
       <c r="I4">
         <v>4.2</v>
       </c>
       <c r="J4">
-        <v>33.34864430502057</v>
+        <v>33.34864430315793</v>
       </c>
       <c r="K4">
         <v>41.0065965589962</v>
@@ -847,7 +847,7 @@
         <v>90.52</v>
       </c>
       <c r="R4">
-        <v>15.33985293703154</v>
+        <v>15.33985293284059</v>
       </c>
       <c r="S4">
         <v>55119.4</v>
@@ -868,34 +868,34 @@
         <v>30464</v>
       </c>
       <c r="Y4">
-        <v>71.09481868059083</v>
+        <v>71.09481867977593</v>
       </c>
       <c r="Z4">
         <v>162488</v>
       </c>
       <c r="AA4">
-        <v>953.7147854939103</v>
+        <v>-1390.265484839678</v>
       </c>
       <c r="AB4">
-        <v>1735760.774856567</v>
+        <v>6295485.101135254</v>
       </c>
       <c r="AC4">
-        <v>2243404.681335449</v>
+        <v>1612246.487609863</v>
       </c>
       <c r="AD4">
-        <v>32486.92857265472</v>
+        <v>-25811.16158819199</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>-2261232.560394287</v>
       </c>
       <c r="AF4">
-        <v>6585.673551648524</v>
+        <v>12361.50152021646</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>-2483869.343723297</v>
       </c>
       <c r="AH4">
-        <v>317430.2630290985</v>
+        <v>599652.8394775391</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -972,34 +972,34 @@
         <v>55516</v>
       </c>
       <c r="Y5">
-        <v>71.7415164829581</v>
+        <v>71.74151648225961</v>
       </c>
       <c r="Z5">
         <v>177946</v>
       </c>
       <c r="AA5">
-        <v>798.6898104250431</v>
+        <v>-1308.369880408049</v>
       </c>
       <c r="AB5">
-        <v>1456076.98109436</v>
+        <v>5721647.489074707</v>
       </c>
       <c r="AC5">
-        <v>1866246.963699341</v>
+        <v>1585019.45715332</v>
       </c>
       <c r="AD5">
-        <v>26145.39410614967</v>
+        <v>-22542.45679521561</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>-1892283.87878418</v>
       </c>
       <c r="AF5">
-        <v>1370.72779367344</v>
+        <v>12324.12904325128</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>-2126388.461986542</v>
       </c>
       <c r="AH5">
-        <v>273139.5611248016</v>
+        <v>424512.5121459961</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>20686</v>
       </c>
       <c r="Y6">
-        <v>72.43307692269445</v>
+        <v>72.43307692211238</v>
       </c>
       <c r="Z6">
         <v>65913</v>
       </c>
       <c r="AA6">
-        <v>660.7817184701562</v>
+        <v>-1163.64360666275</v>
       </c>
       <c r="AB6">
-        <v>1216079.544677734</v>
+        <v>5291475.986694336</v>
       </c>
       <c r="AC6">
-        <v>1540519.019805908</v>
+        <v>1739923.174621582</v>
       </c>
       <c r="AD6">
-        <v>20552.00849080086</v>
+        <v>-17183.07617759705</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>-1547118.240318298</v>
       </c>
       <c r="AF6">
-        <v>3576.606640226129</v>
+        <v>12209.35651636124</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>-1784474.509735107</v>
       </c>
       <c r="AH6">
-        <v>233293.9782028198</v>
+        <v>286403.256149292</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>122898</v>
       </c>
       <c r="AA7">
-        <v>539.9905096367002</v>
+        <v>-956.0866635739803</v>
       </c>
       <c r="AB7">
-        <v>1015768.465637207</v>
+        <v>5004970.59387207</v>
       </c>
       <c r="AC7">
-        <v>1266220.849639893</v>
+        <v>2076957.639892578</v>
       </c>
       <c r="AD7">
-        <v>15706.77172732353</v>
+        <v>-9733.019735813141</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>-1225735.645042419</v>
       </c>
       <c r="AF7">
-        <v>1885.031746073217</v>
+        <v>12017.18393939734</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>-1458127.486968994</v>
       </c>
       <c r="AH7">
-        <v>197893.5142593384</v>
+        <v>185325.071472168</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>154470</v>
       </c>
       <c r="AA8">
-        <v>436.3161839321256</v>
+        <v>-685.6990511417389</v>
       </c>
       <c r="AB8">
-        <v>855143.743927002</v>
+        <v>4862131.310668945</v>
       </c>
       <c r="AC8">
-        <v>1043352.453216553</v>
+        <v>2596122.853088379</v>
       </c>
       <c r="AD8">
-        <v>11609.6838145256</v>
+        <v>-192.2874689102173</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>-928136.0929336548</v>
       </c>
       <c r="AF8">
-        <v>3311.561601465359</v>
+        <v>11747.61131247878</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>-1147347.393676758</v>
       </c>
       <c r="AH8">
-        <v>166938.1693019867</v>
+        <v>121277.9581451416</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>149174</v>
       </c>
       <c r="AA9">
-        <v>349.7587413415313</v>
+        <v>-352.4807693958282</v>
       </c>
       <c r="AB9">
-        <v>734205.3795623779</v>
+        <v>4862958.137207031</v>
       </c>
       <c r="AC9">
-        <v>871913.8305206299</v>
+        <v>3297418.814147949</v>
       </c>
       <c r="AD9">
-        <v>8260.74475312233</v>
+        <v>11439.12062311172</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>-654319.5839920044</v>
       </c>
       <c r="AF9">
-        <v>3807.234277634687</v>
+        <v>11400.63863548636</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>-852134.2298660278</v>
       </c>
       <c r="AH9">
-        <v>140427.9433269501</v>
+        <v>94261.9161529541</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>192213</v>
       </c>
       <c r="AA10">
-        <v>280.3181818798184</v>
+        <v>43.56818167865276</v>
       </c>
       <c r="AB10">
-        <v>652953.372543335</v>
+        <v>5007451.073303223</v>
       </c>
       <c r="AC10">
-        <v>751904.9815673828</v>
+        <v>4180845.523071289</v>
       </c>
       <c r="AD10">
-        <v>5659.95454287529</v>
+        <v>25161.20453882217</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>-404286.1181945801</v>
       </c>
       <c r="AF10">
-        <v>6451.519516058313</v>
+        <v>10976.2659085691</v>
       </c>
       <c r="AG10">
-        <v>17.10681980848312</v>
+        <v>-572487.9955368042</v>
       </c>
       <c r="AH10">
-        <v>118362.8363342285</v>
+        <v>104276.9454956055</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>194654</v>
       </c>
       <c r="AA11">
-        <v>140</v>
+        <v>1111</v>
       </c>
       <c r="AB11">
-        <v>475139</v>
+        <v>4809951</v>
       </c>
       <c r="AC11">
-        <v>551062</v>
+        <v>5812831</v>
       </c>
       <c r="AD11">
-        <v>1988</v>
+        <v>45172</v>
       </c>
       <c r="AE11">
-        <v>1664</v>
+        <v>43284</v>
       </c>
       <c r="AF11">
-        <v>1810</v>
+        <v>12117</v>
       </c>
       <c r="AG11">
-        <v>1885</v>
+        <v>21818</v>
       </c>
       <c r="AH11">
-        <v>66962</v>
+        <v>196631</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>198578</v>
       </c>
       <c r="AA12">
-        <v>256</v>
+        <v>1487</v>
       </c>
       <c r="AB12">
-        <v>618955</v>
+        <v>5760005</v>
       </c>
       <c r="AC12">
-        <v>680074</v>
+        <v>6502335</v>
       </c>
       <c r="AD12">
-        <v>2388</v>
+        <v>61400</v>
       </c>
       <c r="AE12">
-        <v>2524</v>
+        <v>87246</v>
       </c>
       <c r="AF12">
-        <v>6326</v>
+        <v>6351</v>
       </c>
       <c r="AG12">
-        <v>3627</v>
+        <v>43507</v>
       </c>
       <c r="AH12">
-        <v>73349</v>
+        <v>247986</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>246858</v>
       </c>
       <c r="AA13">
-        <v>192</v>
+        <v>1103</v>
       </c>
       <c r="AB13">
-        <v>732174</v>
+        <v>6612820</v>
       </c>
       <c r="AC13">
-        <v>796119</v>
+        <v>7594487</v>
       </c>
       <c r="AD13">
-        <v>2888</v>
+        <v>70733</v>
       </c>
       <c r="AE13">
-        <v>20777</v>
+        <v>64171</v>
       </c>
       <c r="AF13">
-        <v>6749</v>
+        <v>10190</v>
       </c>
       <c r="AG13">
-        <v>7571</v>
+        <v>20512</v>
       </c>
       <c r="AH13">
-        <v>72406</v>
+        <v>819897</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>243799</v>
       </c>
       <c r="AA14">
-        <v>204</v>
+        <v>1263</v>
       </c>
       <c r="AB14">
-        <v>816041</v>
+        <v>7256155</v>
       </c>
       <c r="AC14">
-        <v>864512</v>
+        <v>9293468</v>
       </c>
       <c r="AD14">
-        <v>3984</v>
+        <v>89203</v>
       </c>
       <c r="AE14">
-        <v>23058</v>
+        <v>113826</v>
       </c>
       <c r="AF14">
-        <v>18115</v>
+        <v>10163</v>
       </c>
       <c r="AG14">
-        <v>2995</v>
+        <v>56842</v>
       </c>
       <c r="AH14">
-        <v>133199</v>
+        <v>250356</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>288117</v>
       </c>
       <c r="AA15">
-        <v>242</v>
+        <v>2045</v>
       </c>
       <c r="AB15">
-        <v>941196</v>
+        <v>8271917</v>
       </c>
       <c r="AC15">
-        <v>971175</v>
+        <v>10707322</v>
       </c>
       <c r="AD15">
-        <v>5992</v>
+        <v>125471</v>
       </c>
       <c r="AE15">
-        <v>35205</v>
+        <v>357746</v>
       </c>
       <c r="AF15">
-        <v>1905</v>
+        <v>9039</v>
       </c>
       <c r="AG15">
-        <v>6216</v>
+        <v>379754</v>
       </c>
       <c r="AH15">
-        <v>168568</v>
+        <v>373491</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>245705</v>
       </c>
       <c r="AA16">
-        <v>235</v>
+        <v>3735</v>
       </c>
       <c r="AB16">
-        <v>1030278</v>
+        <v>9201115</v>
       </c>
       <c r="AC16">
-        <v>1210998</v>
+        <v>13066861</v>
       </c>
       <c r="AD16">
-        <v>8487</v>
+        <v>164338</v>
       </c>
       <c r="AE16">
-        <v>24163</v>
+        <v>689384</v>
       </c>
       <c r="AF16">
-        <v>3111</v>
+        <v>4221</v>
       </c>
       <c r="AG16">
-        <v>5718</v>
+        <v>554609</v>
       </c>
       <c r="AH16">
-        <v>59409</v>
+        <v>498221</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>668.1698</v>
       </c>
       <c r="K17">
-        <v>11.54391629714519</v>
+        <v>11.54391629900783</v>
       </c>
       <c r="L17">
-        <v>0.7181373438725132</v>
+        <v>0.7181373438816081</v>
       </c>
       <c r="M17">
         <v>4.89516205635647</v>
@@ -2226,28 +2226,28 @@
         <v>400840</v>
       </c>
       <c r="AA17">
-        <v>237</v>
+        <v>5316</v>
       </c>
       <c r="AB17">
-        <v>1136647.5</v>
+        <v>9837798.6</v>
       </c>
       <c r="AC17">
-        <v>1280428.1</v>
+        <v>15366492.7</v>
       </c>
       <c r="AD17">
-        <v>7787</v>
+        <v>194118</v>
       </c>
       <c r="AE17">
-        <v>23518</v>
+        <v>293797</v>
       </c>
       <c r="AF17">
-        <v>3639</v>
+        <v>3331</v>
       </c>
       <c r="AG17">
-        <v>12267</v>
+        <v>387728</v>
       </c>
       <c r="AH17">
-        <v>52683</v>
+        <v>987945</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>784</v>
       </c>
       <c r="K18">
-        <v>13.015580534935</v>
+        <v>13.0155805372633</v>
       </c>
       <c r="L18">
-        <v>0.7194330445981905</v>
+        <v>0.7194330446054664</v>
       </c>
       <c r="M18">
         <v>3.06879825638772</v>
@@ -2312,13 +2312,13 @@
         <v>21261</v>
       </c>
       <c r="U18">
-        <v>1.188373626400789</v>
+        <v>1.188373626337125</v>
       </c>
       <c r="V18">
         <v>95.40000000000001</v>
       </c>
       <c r="W18">
-        <v>119.387956045568</v>
+        <v>119.387956042774</v>
       </c>
       <c r="X18">
         <v>29357</v>
@@ -2330,28 +2330,28 @@
         <v>330657</v>
       </c>
       <c r="AA18">
-        <v>294</v>
+        <v>5823</v>
       </c>
       <c r="AB18">
-        <v>1454446.8</v>
+        <v>11247028.3</v>
       </c>
       <c r="AC18">
-        <v>1598880.5</v>
+        <v>17862113.4</v>
       </c>
       <c r="AD18">
-        <v>10060</v>
+        <v>206134</v>
       </c>
       <c r="AE18">
-        <v>19944.3</v>
+        <v>968778.7</v>
       </c>
       <c r="AF18">
-        <v>1126.4</v>
+        <v>8107.8</v>
       </c>
       <c r="AG18">
-        <v>6020.7</v>
+        <v>1422489.4</v>
       </c>
       <c r="AH18">
-        <v>78601</v>
+        <v>1904253.3</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>50.4</v>
       </c>
       <c r="E19">
-        <v>23961.00357192755</v>
+        <v>23961.00357148051</v>
       </c>
       <c r="F19">
         <v>26421.7722</v>
@@ -2386,10 +2386,10 @@
         <v>780.2</v>
       </c>
       <c r="K19">
-        <v>15.02572202915326</v>
+        <v>15.02572203171439</v>
       </c>
       <c r="L19">
-        <v>0.7273034867102979</v>
+        <v>0.7273034867193928</v>
       </c>
       <c r="M19">
         <v>2.54831565903259</v>
@@ -2413,16 +2413,16 @@
         <v>699883</v>
       </c>
       <c r="T19">
-        <v>7388.725424766541</v>
+        <v>7388.725428104401</v>
       </c>
       <c r="U19">
-        <v>1.181192307723904</v>
+        <v>1.181192307649326</v>
       </c>
       <c r="V19">
         <v>100.3</v>
       </c>
       <c r="W19">
-        <v>131.1708681336604</v>
+        <v>131.1708681306336</v>
       </c>
       <c r="X19">
         <v>36864</v>
@@ -2434,28 +2434,28 @@
         <v>473105</v>
       </c>
       <c r="AA19">
-        <v>406</v>
+        <v>6848</v>
       </c>
       <c r="AB19">
-        <v>1529398.2</v>
+        <v>12040269.7</v>
       </c>
       <c r="AC19">
-        <v>1839880</v>
+        <v>21652514.6</v>
       </c>
       <c r="AD19">
-        <v>13660</v>
+        <v>230537</v>
       </c>
       <c r="AE19">
-        <v>2961.3</v>
+        <v>756215.8</v>
       </c>
       <c r="AF19">
-        <v>305</v>
+        <v>5876.1</v>
       </c>
       <c r="AG19">
-        <v>9497.5</v>
+        <v>2253307.1</v>
       </c>
       <c r="AH19">
-        <v>102666.9</v>
+        <v>2169100</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>53.3</v>
       </c>
       <c r="E20">
-        <v>25983.82542058825</v>
+        <v>25983.82542011142</v>
       </c>
       <c r="F20">
         <v>22885.475</v>
@@ -2490,10 +2490,10 @@
         <v>861.5968</v>
       </c>
       <c r="K20">
-        <v>17.57434077910148</v>
+        <v>17.57434078236111</v>
       </c>
       <c r="L20">
-        <v>0.7417486702124734</v>
+        <v>0.7417486702233873</v>
       </c>
       <c r="M20">
         <v>2.23787423929862</v>
@@ -2520,13 +2520,13 @@
         <v>26</v>
       </c>
       <c r="U20">
-        <v>1.168514867520571</v>
+        <v>1.168514867436897</v>
       </c>
       <c r="V20">
         <v>97</v>
       </c>
       <c r="W20">
-        <v>143.9045009717811</v>
+        <v>143.9045009687543</v>
       </c>
       <c r="X20">
         <v>46581</v>
@@ -2538,28 +2538,28 @@
         <v>258160</v>
       </c>
       <c r="AA20">
-        <v>485</v>
+        <v>7843</v>
       </c>
       <c r="AB20">
-        <v>1912976</v>
+        <v>13881900</v>
       </c>
       <c r="AC20">
-        <v>2319967</v>
+        <v>23480625</v>
       </c>
       <c r="AD20">
-        <v>18752</v>
+        <v>271200</v>
       </c>
       <c r="AE20">
-        <v>6987</v>
+        <v>1540640</v>
       </c>
       <c r="AF20">
-        <v>1013</v>
+        <v>44</v>
       </c>
       <c r="AG20">
-        <v>17095</v>
+        <v>1880786</v>
       </c>
       <c r="AH20">
-        <v>105098</v>
+        <v>2608648</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>52.1</v>
       </c>
       <c r="E21">
-        <v>28095.28662499785</v>
+        <v>28095.28662437201</v>
       </c>
       <c r="F21">
         <v>28505.6</v>
@@ -2594,25 +2594,25 @@
         <v>906.8244</v>
       </c>
       <c r="K21">
-        <v>20.66143678547814</v>
+        <v>20.66143678850494</v>
       </c>
       <c r="L21">
-        <v>0.76276859509926</v>
+        <v>0.7627685951101739</v>
       </c>
       <c r="M21">
         <v>1.84174347097781</v>
       </c>
       <c r="N21">
-        <v>198.0987745102029</v>
+        <v>198.0987745097373</v>
       </c>
       <c r="O21">
-        <v>111.7582352827303</v>
+        <v>111.7582352762111</v>
       </c>
       <c r="P21">
         <v>1445.9</v>
       </c>
       <c r="Q21">
-        <v>99.14850490196841</v>
+        <v>99.14850490257959</v>
       </c>
       <c r="R21">
         <v>41.1</v>
@@ -2621,49 +2621,49 @@
         <v>743034</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-15485.4619717598</v>
       </c>
       <c r="U21">
-        <v>1.15034130578897</v>
+        <v>1.15034130569984</v>
       </c>
       <c r="V21">
         <v>97.8</v>
       </c>
       <c r="W21">
-        <v>157.5888545594644</v>
+        <v>157.5888545562048</v>
       </c>
       <c r="X21">
-        <v>64644.37941268495</v>
+        <v>7643.885908957821</v>
       </c>
       <c r="Y21">
-        <v>88.18999999953667</v>
+        <v>88.18999999981315</v>
       </c>
       <c r="Z21">
         <v>138489</v>
       </c>
       <c r="AA21">
-        <v>662</v>
+        <v>9090</v>
       </c>
       <c r="AB21">
-        <v>2363708</v>
+        <v>16380571</v>
       </c>
       <c r="AC21">
-        <v>2819363</v>
+        <v>25693973</v>
       </c>
       <c r="AD21">
-        <v>24491</v>
+        <v>323347</v>
       </c>
       <c r="AE21">
-        <v>3813</v>
+        <v>848577</v>
       </c>
       <c r="AF21">
-        <v>5547</v>
+        <v>373</v>
       </c>
       <c r="AG21">
-        <v>14427</v>
+        <v>1161684</v>
       </c>
       <c r="AH21">
-        <v>131127</v>
+        <v>2904860</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>51.2</v>
       </c>
       <c r="E22">
-        <v>30295.38718509674</v>
+        <v>30295.38718441129</v>
       </c>
       <c r="F22">
         <v>29120.8769</v>
@@ -2692,82 +2692,82 @@
         <v>64.67</v>
       </c>
       <c r="I22">
-        <v>2.445933952479436</v>
+        <v>2.445933952493306</v>
       </c>
       <c r="J22">
-        <v>1110.460819622502</v>
+        <v>1110.460819616914</v>
       </c>
       <c r="K22">
-        <v>24.2870100478176</v>
+        <v>24.28701005131006</v>
       </c>
       <c r="L22">
-        <v>0.7903632613742957</v>
+        <v>0.7903632613888476</v>
       </c>
       <c r="M22">
-        <v>6.067923001712188</v>
+        <v>6.067923016147688</v>
       </c>
       <c r="N22">
-        <v>200.3294504645746</v>
+        <v>200.3294504638761</v>
       </c>
       <c r="O22">
-        <v>130.2331682001241</v>
+        <v>130.2331681936048</v>
       </c>
       <c r="P22">
-        <v>1346.748433775073</v>
+        <v>1137.474892801403</v>
       </c>
       <c r="Q22">
-        <v>98.77081914353766</v>
+        <v>98.77081914423616</v>
       </c>
       <c r="R22">
-        <v>44.82014705275651</v>
+        <v>44.82014706393238</v>
       </c>
       <c r="S22">
         <v>689151</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-28600.99331188202</v>
       </c>
       <c r="U22">
-        <v>1.126671622538197</v>
+        <v>1.126671622436334</v>
       </c>
       <c r="V22">
-        <v>94.57928793900646</v>
+        <v>94.57928792340681</v>
       </c>
       <c r="W22">
-        <v>172.2239288974088</v>
+        <v>172.2239288941491</v>
       </c>
       <c r="X22">
-        <v>59542.4314245466</v>
+        <v>88358.05256382862</v>
       </c>
       <c r="Y22">
-        <v>89.59936263674172</v>
+        <v>89.59936263700365</v>
       </c>
       <c r="Z22">
-        <v>305597.7941045761</v>
+        <v>305597.7941131592</v>
       </c>
       <c r="AA22">
-        <v>825</v>
+        <v>8621</v>
       </c>
       <c r="AB22">
-        <v>2932658.5</v>
+        <v>18354795.2</v>
       </c>
       <c r="AC22">
-        <v>3450148.6</v>
+        <v>28339999.1</v>
       </c>
       <c r="AD22">
-        <v>36907</v>
+        <v>351610</v>
       </c>
       <c r="AE22">
-        <v>6280.9</v>
+        <v>230483.7</v>
       </c>
       <c r="AF22">
-        <v>2160.2</v>
+        <v>627.6</v>
       </c>
       <c r="AG22">
-        <v>6169.5</v>
+        <v>1093151.5</v>
       </c>
       <c r="AH22">
-        <v>273230.1</v>
+        <v>2550417.3</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>54.7</v>
       </c>
       <c r="E23">
-        <v>32584.12710094452</v>
+        <v>32584.12710011005</v>
       </c>
       <c r="F23">
-        <v>31529.85597443581</v>
+        <v>31529.8559743315</v>
       </c>
       <c r="G23">
         <v>-3.15</v>
       </c>
       <c r="H23">
-        <v>66.40595588280848</v>
+        <v>66.40595588278666</v>
       </c>
       <c r="I23">
-        <v>2.341415892609575</v>
+        <v>2.341415892626173</v>
       </c>
       <c r="J23">
-        <v>1238.376842735335</v>
+        <v>1238.37684273161</v>
       </c>
       <c r="K23">
-        <v>28.45106056611985</v>
+        <v>28.4510605703108</v>
       </c>
       <c r="L23">
-        <v>0.8245326690412185</v>
+        <v>0.8245326690557704</v>
       </c>
       <c r="M23">
-        <v>9.251020803581923</v>
+        <v>9.251020819181576</v>
       </c>
       <c r="N23">
-        <v>203.2174664605409</v>
+        <v>203.2174664596096</v>
       </c>
       <c r="O23">
-        <v>150.1090092714876</v>
+        <v>150.1090092635714</v>
       </c>
       <c r="P23">
-        <v>1380.850632904196</v>
+        <v>1180.044610079958</v>
       </c>
       <c r="Q23">
-        <v>98.29632868949557</v>
+        <v>98.29632869031047</v>
       </c>
       <c r="R23">
-        <v>51.14029410970397</v>
+        <v>51.14029412320815</v>
       </c>
       <c r="S23">
-        <v>741486.1596403122</v>
+        <v>741486.1596775055</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-42835.48307991028</v>
       </c>
       <c r="U23">
-        <v>1.097505817755518</v>
+        <v>1.097505817650017</v>
       </c>
       <c r="V23">
-        <v>92.42709186277352</v>
+        <v>92.42709184554406</v>
       </c>
       <c r="W23">
-        <v>187.8097239849158</v>
+        <v>187.8097239814233</v>
       </c>
       <c r="X23">
-        <v>61346.53822475659</v>
+        <v>30859.08289270863</v>
       </c>
       <c r="Y23">
-        <v>91.05358791127219</v>
+        <v>91.05358791150502</v>
       </c>
       <c r="Z23">
-        <v>306505.0479712486</v>
+        <v>306505.047981739</v>
       </c>
       <c r="AA23">
-        <v>935.2272727862</v>
+        <v>10909.79545468092</v>
       </c>
       <c r="AB23">
-        <v>3208135.800384521</v>
+        <v>19959475.21893311</v>
       </c>
       <c r="AC23">
-        <v>3871899.355133057</v>
+        <v>32239290.7958374</v>
       </c>
       <c r="AD23">
-        <v>39931.22727966309</v>
+        <v>393799.7954726219</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>681892.0088119507</v>
       </c>
       <c r="AF23">
-        <v>1791.802040940753</v>
+        <v>-1583.984091937542</v>
       </c>
       <c r="AG23">
-        <v>11356.79317939281</v>
+        <v>1646322.467952728</v>
       </c>
       <c r="AH23">
-        <v>236022.2727966309</v>
+        <v>3604299.818359375</v>
       </c>
     </row>
   </sheetData>
